--- a/Testdata/Non_Oncology/Templates/ImportPublications/Extraction sheet - Invalid Data.xlsx
+++ b/Testdata/Non_Oncology/Templates/ImportPublications/Extraction sheet - Invalid Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cytel\Templates\Non-Oncology\Test Environment\Test_NonOncology_Automation_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF9FDA9-5152-4F7C-AA91-3812BC49B050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC1518-09CB-4D4E-8594-52E073C4E8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3906,9 +3906,9 @@
   </sheetPr>
   <dimension ref="A1:IF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5:Q5"/>
+      <selection pane="bottomLeft" activeCell="CL9" sqref="CL9:CL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -8562,8 +8562,8 @@
       <c r="CK9" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="CL9" s="127" t="s">
-        <v>725</v>
+      <c r="CL9" s="114">
+        <v>1.25</v>
       </c>
       <c r="CM9" s="126">
         <v>0.9</v>
@@ -9282,8 +9282,8 @@
       <c r="CK10" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="CL10" s="127" t="s">
-        <v>725</v>
+      <c r="CL10" s="114" t="s">
+        <v>659</v>
       </c>
       <c r="CM10" s="117" t="s">
         <v>659</v>
@@ -11444,8 +11444,8 @@
       <c r="CK13" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="CL13" s="114">
-        <v>2.6</v>
+      <c r="CL13" s="127" t="s">
+        <v>725</v>
       </c>
       <c r="CM13" s="126">
         <v>0.9</v>
@@ -12162,8 +12162,8 @@
       <c r="CK14" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="CL14" s="114" t="s">
-        <v>659</v>
+      <c r="CL14" s="127" t="s">
+        <v>725</v>
       </c>
       <c r="CM14" s="117" t="s">
         <v>659</v>
